--- a/data/trans_bre/P16_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>20,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,15</t>
+          <t>18,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,93</t>
+          <t>13,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>18,98</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>170,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>107,28%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>48,55%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>55,52%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 18,28</t>
+          <t>9,66; 31,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 24,41</t>
+          <t>7,41; 29,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 13,99</t>
+          <t>-3,26; 14,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,86; 26,31</t>
+          <t>4,51; 21,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 10,37</t>
+          <t>7,0; 34,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 98,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 157,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 56,59</t>
+          <t>52,7; 458,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,45; 118,74</t>
+          <t>29,71; 257,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 27,57</t>
+          <t>-9,77; 59,58</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 93,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 142,44</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,89</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>101,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>111,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,88%</t>
+          <t>58,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>97,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 13,71</t>
+          <t>3,32; 16,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 10,87</t>
+          <t>0,06; 10,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,4</t>
+          <t>4,6; 12,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,61</t>
+          <t>4,48; 13,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 13,37</t>
+          <t>-1,38; 13,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,63; 181,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,4; 160,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,73; 171,26</t>
+          <t>27,33; 263,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,48; 128,92</t>
+          <t>-1,49; 145,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 78,04</t>
+          <t>42,03; 178,65</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31,01; 122,99</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 85,32</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>-2,61%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>69,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>48,66%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69,46%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 3,71</t>
+          <t>-3,69; 6,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 3,09</t>
+          <t>-6,12; 4,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 8,42</t>
+          <t>0,11; 9,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,61</t>
+          <t>0,07; 7,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 7,25</t>
+          <t>0,87; 12,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 49,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,84; 49,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 156,8</t>
+          <t>-32,77; 128,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 123,11</t>
+          <t>-49,56; 90,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 108,19</t>
+          <t>-4,86; 183,49</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 115,42</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 169,53</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>17,48</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>55,91%</t>
+          <t>51,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>80,65%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>106,55%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,56</t>
+          <t>3,2; 10,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 10,02</t>
+          <t>2,37; 13,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,79</t>
+          <t>2,53; 15,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,01</t>
+          <t>10,26; 24,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 97,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,41; 105,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,53; 90,06</t>
+          <t>19,27; 91,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,27; 107,27</t>
+          <t>11,57; 126,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 45,13</t>
+          <t>11,4; 168,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51,07; 181,59</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,01</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12,86</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63,18%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59,07%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>63,53%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>71,06%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 10,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 9,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 10,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 12,11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 16,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33,5; 98,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27,08; 99,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30,93; 96,57</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36,55; 97,44</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>41,13; 104,14</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
